--- a/biology/Botanique/Porcelle_à_feuilles_tachées/Porcelle_à_feuilles_tachées.xlsx
+++ b/biology/Botanique/Porcelle_à_feuilles_tachées/Porcelle_à_feuilles_tachées.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Porcelle_%C3%A0_feuilles_tach%C3%A9es</t>
+          <t>Porcelle_à_feuilles_tachées</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hypochaeris maculata
 La porcelle à feuilles tachées ou porcelle maculée (Hypochaeris maculata) est une espèce de plante à fleurs du genre Hypochaeris, dans la famille des Asteraceae.
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Porcelle_%C3%A0_feuilles_tach%C3%A9es</t>
+          <t>Porcelle_à_feuilles_tachées</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Plantes indésirables</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les porcelles (appelées groins d'âne dans certaines régions) sont indésirables dans les pelouses, qu'elles étouffent de leurs feuilles disposées en rosaces.
 Le désherbeur est un outil qui permet de les retirer du sol.
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Porcelle_%C3%A0_feuilles_tach%C3%A9es</t>
+          <t>Porcelle_à_feuilles_tachées</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Statut de protection</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée en Île-de-France, en Lorraine et en Alsace.
 </t>
@@ -558,7 +574,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Porcelle_%C3%A0_feuilles_tach%C3%A9es</t>
+          <t>Porcelle_à_feuilles_tachées</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,7 +592,9 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les feuilles de la plante sont comestibles.
 C'est l'une des espèces utilisée dans l'Horloge florale de Linné (ouverture des fleurs à 6h, fermeture à 16-17h).
